--- a/inst/extdata/multi-test.xlsx
+++ b/inst/extdata/multi-test.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felix\projects\R\SheetReader\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B350AB0-43FD-4CF9-88DC-BA55515BE1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C75668B-C328-4325-AC79-57D5C33E27BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CFD9E664-1C26-4510-BA57-8333ABEE9441}"/>
+    <workbookView xWindow="20640" yWindow="2370" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{CFD9E664-1C26-4510-BA57-8333ABEE9441}"/>
   </bookViews>
   <sheets>
     <sheet name="types" sheetId="1" r:id="rId1"/>
     <sheet name="escape" sheetId="2" r:id="rId2"/>
     <sheet name="encoding" sheetId="3" r:id="rId3"/>
+    <sheet name="coerce" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Text</t>
   </si>
@@ -117,6 +118,9 @@
   </si>
   <si>
     <t>спасибо</t>
+  </si>
+  <si>
+    <t>BlaBla</t>
   </si>
 </sst>
 </file>
@@ -473,7 +477,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916F4C2B-E790-4F40-ABCD-6EEB84FBCF9F}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -643,4 +647,310 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F742CB-27F8-4FC2-964A-7FA51FCA0EFD}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>29384723</v>
+      </c>
+      <c r="C2">
+        <v>-234.72389999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43922.567361111112</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>5+9</f>
+        <v>14</v>
+      </c>
+      <c r="H2" t="e">
+        <f>A2/B2</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>29384723</v>
+      </c>
+      <c r="D3">
+        <v>-234.72389999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43922.567361111112</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>5+9</f>
+        <v>14</v>
+      </c>
+      <c r="I3" t="e">
+        <f>B3/C3</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>29384723</v>
+      </c>
+      <c r="E4">
+        <v>-234.72389999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43922.567361111112</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>5+9</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>5+9</f>
+        <v>14</v>
+      </c>
+      <c r="B5" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>29384723</v>
+      </c>
+      <c r="F5">
+        <v>-234.72389999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43922.567361111112</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>5+9</f>
+        <v>14</v>
+      </c>
+      <c r="C6" t="e">
+        <f>A2/B2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>29384723</v>
+      </c>
+      <c r="G6">
+        <v>-234.72389999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44197</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43922.567361111112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43922.567361111112</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>5+9</f>
+        <v>14</v>
+      </c>
+      <c r="D7" t="e">
+        <f>A2/B2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>29384723</v>
+      </c>
+      <c r="H7">
+        <v>-234.72389999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44197</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43922.567361111112</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>5+9</f>
+        <v>14</v>
+      </c>
+      <c r="E8" t="e">
+        <f>A2/B2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>29384723</v>
+      </c>
+      <c r="I8">
+        <v>-234.72389999999999</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-234.72389999999999</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43922.567361111112</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>5+9</f>
+        <v>14</v>
+      </c>
+      <c r="F9" t="e">
+        <f>A2/B2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>29384723</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>29384723</v>
+      </c>
+      <c r="B10">
+        <v>-234.72389999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43922.567361111112</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>5+9</f>
+        <v>14</v>
+      </c>
+      <c r="G10" t="e">
+        <f>A2/B2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>